--- a/Sprint/11/xx_畳み込み_イメージ.xlsx
+++ b/Sprint/11/xx_畳み込み_イメージ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="112">
   <si>
     <t xml:space="preserve">凡例</t>
   </si>
@@ -458,6 +458,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">内積を取る要素</t>
     </r>
@@ -468,24 +469,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">内積を取る要素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">2</t>
     </r>
   </si>
@@ -552,7 +535,7 @@
     <t xml:space="preserve">フィルター</t>
   </si>
   <si>
-    <t xml:space="preserve">1, 3, 2, 3</t>
+    <t xml:space="preserve">3, 2, 3</t>
   </si>
   <si>
     <t xml:space="preserve">数字はテキトーに入れている</t>
@@ -1338,7 +1321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
@@ -1372,16 +1355,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK JP"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1456,7 +1429,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1505,27 +1478,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1613,7 +1582,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2241,20 +2210,20 @@
         <v>4</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="N37" s="12" t="s">
+      <c r="N37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -2262,37 +2231,37 @@
     </row>
     <row r="40" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="N41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="R41" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,10 +2274,10 @@
       <c r="D42" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="J42" s="14"/>
-      <c r="M42" s="15" t="s">
-        <v>51</v>
+      <c r="G42" s="12"/>
+      <c r="J42" s="13"/>
+      <c r="M42" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>3</v>
@@ -2319,16 +2288,16 @@
       <c r="P42" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="Q42" s="16" t="s">
-        <v>52</v>
+      <c r="Q42" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="14"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="14"/>
-      <c r="M43" s="15"/>
+      <c r="J43" s="13"/>
+      <c r="M43" s="14"/>
       <c r="N43" s="0" t="n">
         <v>2</v>
       </c>
@@ -2338,18 +2307,18 @@
       <c r="P43" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q43" s="16" t="s">
-        <v>53</v>
+      <c r="Q43" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="J44" s="13"/>
+      <c r="M44" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="J44" s="14"/>
-      <c r="M44" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>1</v>
@@ -2360,25 +2329,25 @@
       <c r="P44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q44" s="16" t="s">
-        <v>52</v>
+      <c r="Q44" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="14"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="14"/>
-      <c r="M45" s="15"/>
+      <c r="J45" s="13"/>
+      <c r="M45" s="14"/>
       <c r="N45" s="0" t="n">
         <v>4</v>
       </c>
@@ -2388,18 +2357,18 @@
       <c r="P45" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q45" s="16" t="s">
-        <v>53</v>
+      <c r="Q45" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="J46" s="14"/>
-      <c r="M46" s="15" t="s">
-        <v>58</v>
+      <c r="G46" s="12"/>
+      <c r="J46" s="13"/>
+      <c r="M46" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>6</v>
@@ -2410,20 +2379,20 @@
       <c r="P46" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Q46" s="16" t="s">
-        <v>52</v>
+      <c r="Q46" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G47" s="14"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="14"/>
-      <c r="M47" s="15"/>
+      <c r="K47" s="13"/>
+      <c r="M47" s="14"/>
       <c r="N47" s="0" t="n">
         <v>7</v>
       </c>
@@ -2433,8 +2402,8 @@
       <c r="P47" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Q47" s="16" t="s">
-        <v>53</v>
+      <c r="Q47" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,50 +2416,50 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>26</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="H51" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="J51" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M51" s="16" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="N51" s="0" t="n">
         <v>3</v>
@@ -2518,8 +2487,8 @@
       <c r="H52" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="M52" s="16" t="s">
-        <v>55</v>
+      <c r="M52" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>1</v>
@@ -2548,8 +2517,8 @@
         <v>50</v>
       </c>
       <c r="K53" s="6"/>
-      <c r="M53" s="16" t="s">
-        <v>58</v>
+      <c r="M53" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>6</v>
@@ -2578,12 +2547,12 @@
         <v>35</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
@@ -2604,12 +2573,12 @@
         <v>22</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>26</v>
@@ -2617,22 +2586,22 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J58" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -2700,7 +2669,7 @@
     </row>
     <row r="65" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>26</v>
@@ -2708,22 +2677,22 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,18 +2726,18 @@
     <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G69" s="8"/>
       <c r="H69" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G70" s="11"/>
       <c r="H70" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2776,10 +2745,10 @@
     </row>
     <row r="73" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="M73" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
@@ -2787,23 +2756,23 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="D74" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="M74" s="6"/>
       <c r="N74" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +2808,10 @@
     </row>
     <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M77" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>30</v>
@@ -2854,20 +2823,20 @@
     </row>
     <row r="78" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O78" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="P78" s="6"/>
     </row>
@@ -2884,7 +2853,7 @@
         <v>20</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -2892,18 +2861,18 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N81" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O81" s="6" t="s">
         <v>27</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M82" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N82" s="0" t="n">
         <v>10</v>
@@ -2917,7 +2886,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M83" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N83" s="0" t="n">
         <v>11</v>
@@ -2933,14 +2902,14 @@
       <c r="M84" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="N84" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O84" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="P84" s="17" t="s">
-        <v>58</v>
+      <c r="N84" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O84" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P84" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,7 +2919,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M86" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
@@ -2958,13 +2927,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N87" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>36</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,32 +2961,32 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N90" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O90" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="P90" s="17" t="s">
-        <v>58</v>
+      <c r="N90" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O90" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P90" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M91" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M93" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
@@ -3025,25 +2994,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95" s="0" t="s">
+      <c r="M95" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O95" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M95" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N95" s="6" t="s">
+      <c r="P95" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="O95" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P95" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,35 +3130,35 @@
         <v>22</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M104" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="M104" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="N105" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P105" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="O105" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P105" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,8 +3171,8 @@
       <c r="D106" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="M106" s="17" t="s">
-        <v>51</v>
+      <c r="M106" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="N106" s="0" t="n">
         <v>32</v>
@@ -3225,8 +3194,8 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M107" s="17" t="s">
-        <v>55</v>
+      <c r="M107" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="N107" s="0" t="n">
         <v>62</v>
@@ -3248,8 +3217,8 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M108" s="17" t="s">
-        <v>58</v>
+      <c r="M108" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="N108" s="0" t="n">
         <v>92</v>
@@ -3272,50 +3241,50 @@
     </row>
     <row r="109" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N109" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
       <c r="Q109" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R109" s="9"/>
       <c r="S109" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M111" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O113" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P113" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T113" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="T113" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,7 +3298,7 @@
         <v>70</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N114" s="0" t="n">
         <v>60</v>
@@ -3361,7 +3330,7 @@
         <v>140</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N115" s="0" t="n">
         <v>63</v>
@@ -3390,12 +3359,12 @@
         <v>22</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O116" s="9"/>
       <c r="P116" s="9"/>
       <c r="Q116" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R116" s="9"/>
       <c r="S116" s="9"/>
@@ -3415,37 +3384,37 @@
         <v>22</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N118" s="8"/>
       <c r="Q118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N119" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="N119" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O120" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P120" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,10 +3425,10 @@
         <v>60</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="M121" s="15" t="s">
-        <v>52</v>
+        <v>102</v>
+      </c>
+      <c r="M121" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="N121" s="6" t="n">
         <v>60</v>
@@ -3468,7 +3437,7 @@
         <v>63</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,9 +3448,9 @@
         <v>100</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="M122" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="M122" s="14"/>
       <c r="N122" s="6" t="n">
         <v>60</v>
       </c>
@@ -3489,7 +3458,7 @@
         <v>63</v>
       </c>
       <c r="P122" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,9 +3469,9 @@
         <v>140</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="M123" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="M123" s="14"/>
       <c r="N123" s="6" t="n">
         <v>60</v>
       </c>
@@ -3510,12 +3479,12 @@
         <v>63</v>
       </c>
       <c r="P123" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M124" s="15" t="s">
-        <v>53</v>
+      <c r="M124" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="N124" s="6" t="n">
         <v>60</v>
@@ -3524,11 +3493,11 @@
         <v>63</v>
       </c>
       <c r="P124" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M125" s="15"/>
+      <c r="M125" s="14"/>
       <c r="N125" s="6" t="n">
         <v>60</v>
       </c>
@@ -3536,11 +3505,11 @@
         <v>63</v>
       </c>
       <c r="P125" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M126" s="15"/>
+      <c r="M126" s="14"/>
       <c r="N126" s="6" t="n">
         <v>60</v>
       </c>
@@ -3548,15 +3517,15 @@
         <v>63</v>
       </c>
       <c r="P126" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N127" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O127" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="O127" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,32 +3535,32 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M130" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M131" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M131" s="6" t="s">
+      <c r="N131" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N131" s="6" t="s">
+      <c r="O131" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="O131" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M132" s="0" t="n">
         <v>0</v>
@@ -3642,38 +3611,38 @@
     </row>
     <row r="135" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M135" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="M135" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N137" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O137" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O137" s="6" t="s">
+      <c r="P137" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="P137" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +3676,7 @@
     </row>
     <row r="139" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C139" s="9"/>
       <c r="M139" s="8" t="s">
@@ -3728,27 +3697,27 @@
     </row>
     <row r="140" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D140" s="9"/>
       <c r="N140" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O140" s="9"/>
     </row>
     <row r="141" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D141" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E141" s="9"/>
       <c r="O141" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P142" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q142" s="9"/>
     </row>
